--- a/excercises/excercises/20.IPR.xlsx
+++ b/excercises/excercises/20.IPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F88982-DAFB-4953-9AEB-D76C79709E45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B04FAE8-B6E8-4338-B0EF-3A92118767A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="210" windowWidth="26520" windowHeight="20790" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="muob_">IPR!$C$15</definedName>
     <definedName name="N_" localSheetId="0">IPR!$C$29</definedName>
     <definedName name="Pb_">IPR!$C$17</definedName>
+    <definedName name="Pb_cal_">IPR!$C$12</definedName>
     <definedName name="PI_" localSheetId="0">IPR!$C$25</definedName>
     <definedName name="Pres_" localSheetId="0">IPR!$C$24</definedName>
     <definedName name="Pwftest_">IPR!$C$21</definedName>
@@ -45,7 +46,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="326">
   <si>
     <t>Конструкция</t>
   </si>
@@ -956,9 +956,6 @@
     <t>ЭЦН5А-700Э (из ЭЦН5А-500Э)</t>
   </si>
   <si>
-    <t>м3/м3</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -1340,6 +1337,12 @@
     <t>Постройте индикаторную кривую</t>
   </si>
   <si>
+    <t>Построение индикаторной кривой</t>
+  </si>
+  <si>
+    <t>версия</t>
+  </si>
+  <si>
     <r>
       <t>кг/м</t>
     </r>
@@ -1347,7 +1350,6 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1364,7 +1366,6 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1375,7 +1376,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Arial Cyr"/>
         <charset val="204"/>
       </rPr>
@@ -1383,10 +1383,7 @@
     </r>
   </si>
   <si>
-    <t>Построение индикаторной кривой</t>
-  </si>
-  <si>
-    <t>версия</t>
+    <t>д.ед.</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1396,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1500,12 +1497,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1559,7 +1550,6 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1623,7 +1613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,7 +2062,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2219,10 +2209,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2233,28 +2220,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2262,54 +2231,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2318,16 +2243,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2367,6 +2287,73 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2456,8 +2443,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2578,64 +2565,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3792731441949542</c:v>
+                  <c:v>9.9187474546011547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.758546288389908</c:v>
+                  <c:v>19.837494909202309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.137819432584863</c:v>
+                  <c:v>29.756242363803466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.517092576779817</c:v>
+                  <c:v>39.674989818404619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.896365720974771</c:v>
+                  <c:v>49.593737273005772</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.275638865169725</c:v>
+                  <c:v>59.512484727606925</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.654912009364679</c:v>
+                  <c:v>69.431232182208078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.034185153559633</c:v>
+                  <c:v>79.349979636809238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.413458297754588</c:v>
+                  <c:v>89.268727091410398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.792731441949542</c:v>
+                  <c:v>99.187474546011558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92.172004586144496</c:v>
+                  <c:v>109.10622200061272</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.55127773033945</c:v>
+                  <c:v>119.02496945521388</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108.9305508745344</c:v>
+                  <c:v>128.94371690981504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117.30982401872936</c:v>
+                  <c:v>138.86246436441618</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>125.68909716292431</c:v>
+                  <c:v>148.78121181901733</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>134.06837030711927</c:v>
+                  <c:v>158.69995927361848</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>142.44764345131421</c:v>
+                  <c:v>168.61870672821962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150.82691659550915</c:v>
+                  <c:v>178.53745418282077</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159.20618973970409</c:v>
+                  <c:v>188.45620163742191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>167.58546288389903</c:v>
+                  <c:v>198.37494909202306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,64 +2637,64 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.8114697819401</c:v>
+                  <c:v>240.08125254539885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235.47097321851291</c:v>
+                  <c:v>230.16250509079768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.965479677627</c:v>
+                  <c:v>220.24375763619653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.27998248656144</c:v>
+                  <c:v>210.32501018159539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.39705208714059</c:v>
+                  <c:v>200.40626272699421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>204.29625021898838</c:v>
+                  <c:v>190.48751527239307</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195.9533483439667</c:v>
+                  <c:v>180.56876781779192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>187.33926387700305</c:v>
+                  <c:v>170.65002036319078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>178.41857870219391</c:v>
+                  <c:v>160.7312729085896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>169.14742008291859</c:v>
+                  <c:v>150.81252545398843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159.47033258588769</c:v>
+                  <c:v>140.89377799938728</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>149.31548322079414</c:v>
+                  <c:v>130.97503054478614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>138.58696574824597</c:v>
+                  <c:v>121.05628309018496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127.15171866767156</c:v>
+                  <c:v>110.89439013405214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.81557776767839</c:v>
+                  <c:v>100.02727433529388</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.27485214904351</c:v>
+                  <c:v>88.220870330268156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.00344638835098</c:v>
+                  <c:v>75.082562520816197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.923468103450958</c:v>
+                  <c:v>59.833402917957898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.914837929748906</c:v>
+                  <c:v>40.383204097085397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8481023922898316E-13</c:v>
+                  <c:v>2.8181536965155018E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,64 +2719,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3792731441955848</c:v>
+                  <c:v>9.9187474546011458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.758546288390225</c:v>
+                  <c:v>19.83749490920232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.137819432584866</c:v>
+                  <c:v>29.756242363803466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.517092576779504</c:v>
+                  <c:v>39.674989818404612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.896365720975091</c:v>
+                  <c:v>49.593737273005786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.275638865169732</c:v>
+                  <c:v>59.512484727606932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.654912009364374</c:v>
+                  <c:v>69.431232182208078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.03418515355996</c:v>
+                  <c:v>79.349979636809223</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.413458297754602</c:v>
+                  <c:v>89.268727091410398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.792731441949243</c:v>
+                  <c:v>99.187474546011572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92.172004586144823</c:v>
+                  <c:v>109.10622200061272</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.55127773033946</c:v>
+                  <c:v>119.02496945521386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108.93055087453411</c:v>
+                  <c:v>128.94371690981504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117.3098240187297</c:v>
+                  <c:v>138.86246436441624</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>125.68909716292433</c:v>
+                  <c:v>148.78121181901744</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>134.06837030711898</c:v>
+                  <c:v>158.69995927361836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>142.44764345131455</c:v>
+                  <c:v>168.61870672821959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150.8269165955092</c:v>
+                  <c:v>178.53745418282082</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159.20618973970431</c:v>
+                  <c:v>188.45620163742174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>167.58546288389903</c:v>
+                  <c:v>198.37494909202306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,64 +2791,64 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.8114697819401</c:v>
+                  <c:v>240.08125254539885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235.47097321851291</c:v>
+                  <c:v>230.16250509079768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.965479677627</c:v>
+                  <c:v>220.24375763619653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.27998248656144</c:v>
+                  <c:v>210.32501018159539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.39705208714059</c:v>
+                  <c:v>200.40626272699421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>204.29625021898838</c:v>
+                  <c:v>190.48751527239307</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195.9533483439667</c:v>
+                  <c:v>180.56876781779192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>187.33926387700305</c:v>
+                  <c:v>170.65002036319078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>178.41857870219391</c:v>
+                  <c:v>160.7312729085896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>169.14742008291859</c:v>
+                  <c:v>150.81252545398843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159.47033258588769</c:v>
+                  <c:v>140.89377799938728</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>149.31548322079414</c:v>
+                  <c:v>130.97503054478614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>138.58696574824597</c:v>
+                  <c:v>121.05628309018496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127.15171866767156</c:v>
+                  <c:v>110.89439013405214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.81557776767839</c:v>
+                  <c:v>100.02727433529388</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.27485214904351</c:v>
+                  <c:v>88.220870330268156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.00344638835098</c:v>
+                  <c:v>75.082562520816197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.923468103450958</c:v>
+                  <c:v>59.833402917957898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.914837929748906</c:v>
+                  <c:v>40.383204097085397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8481023922898316E-13</c:v>
+                  <c:v>2.8181536965155018E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5925,8 +5912,8 @@
       <definedName name="PVT_pb_atma"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6235,7 +6222,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6254,10 +6241,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -6266,221 +6253,225 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="51" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
-        <v>294</v>
       </c>
       <c r="C7" s="50">
         <v>0.86</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="61">
+      <c r="D7" s="52"/>
+      <c r="E7" s="96">
         <f>gamma_oil_*1000</f>
         <v>860</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>322</v>
+      <c r="F7" s="97" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54" t="s">
-        <v>295</v>
+      <c r="B8" s="53" t="s">
+        <v>294</v>
       </c>
       <c r="C8" s="50">
         <v>1</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="61">
+      <c r="D8" s="52"/>
+      <c r="E8" s="96">
         <f>gamma_wat_*1000</f>
         <v>1000</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>322</v>
+      <c r="F8" s="97" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="54" t="s">
-        <v>296</v>
+      <c r="B9" s="53" t="s">
+        <v>295</v>
       </c>
       <c r="C9" s="50">
         <v>0.8</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="61">
+      <c r="D9" s="52"/>
+      <c r="E9" s="96">
         <f>gamma_gas_*1.22</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>322</v>
+      <c r="F9" s="97" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="50">
+        <v>80</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="50">
-        <v>100</v>
-      </c>
-      <c r="D10" s="54" t="s">
+      <c r="E10" s="96">
+        <f>Rsb_/gamma_oil_</f>
+        <v>93.023255813953483</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="E10" s="61">
+      <c r="C11" s="50">
+        <v>80</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="96">
         <f>Rsb_/gamma_oil_</f>
-        <v>116.27906976744187</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="55" t="s">
+        <v>93.023255813953483</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="50">
-        <v>100</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" s="61">
-        <f>Rsb_/gamma_oil_</f>
-        <v>116.27906976744187</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="54" t="s">
+      <c r="C12" s="50">
+        <v>120</v>
+      </c>
+      <c r="D12" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="54" t="s">
+      <c r="E12" s="96">
+        <f>Pb_cal_*1.01325/10</f>
+        <v>12.159000000000001</v>
+      </c>
+      <c r="F12" s="97" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="61" t="e">
-        <f>Pb_cal_*1.01325/10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="56" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="53" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="54" t="s">
-        <v>303</v>
       </c>
       <c r="C13" s="50">
         <v>100</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="E13" s="61">
+      <c r="D13" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="96">
         <f>Tres_*9/5+32</f>
         <v>212</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="54" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="55" t="s">
-        <v>305</v>
       </c>
       <c r="C14" s="50">
         <v>1.2</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="57" t="s">
-        <v>306</v>
+      <c r="B15" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C15" s="50">
         <v>1</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="57" t="s">
-        <v>309</v>
+      <c r="B16" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="C16" s="50">
         <v>22</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="62">
+      <c r="D16" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="98">
         <f>fw_/100</f>
         <v>0.22</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="97" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" s="51">
+      <c r="B17" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="94">
         <f>[1]!PVT_pb_atma(Tres_,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_cal_,Tres_,Bob_,muob_)</f>
-        <v>2029</v>
-      </c>
-      <c r="D17" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="96">
+        <f>Pb_*1.01325/10</f>
+        <v>12.159000000000001</v>
+      </c>
+      <c r="F17" s="97" t="s">
         <v>301</v>
-      </c>
-      <c r="E17" s="61" t="e">
-        <f>Pb_cal_*1.01325/10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57" t="s">
-        <v>310</v>
+      <c r="B20" s="55" t="s">
+        <v>309</v>
       </c>
       <c r="C20" s="50">
         <v>100</v>
       </c>
-      <c r="D20" s="54" t="s">
-        <v>316</v>
+      <c r="D20" s="53" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57" t="s">
-        <v>311</v>
+      <c r="B21" s="55" t="s">
+        <v>310</v>
       </c>
       <c r="C21" s="50">
         <v>150</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>315</v>
+      <c r="D21" s="53" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6489,366 +6480,366 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57" t="s">
-        <v>313</v>
+      <c r="B24" s="55" t="s">
+        <v>312</v>
       </c>
       <c r="C24" s="50">
         <v>250</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="95">
+        <f>[1]!IPR_PI_sm3dayatm(qltest_,Pwftest_,Pres_,fw_,Pb_)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="94">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,0,fw_,Pb_)</f>
+        <v>198.37494909202309</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="58">
-        <f>[1]!IPR_PI_sm3dayatm(qltest_,Pwftest_,Pres_,fw_,Pb_)</f>
-        <v>1.1774482189276632</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="51">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,0,fw_,Pb_)</f>
-        <v>167.58546288389908</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="57" t="s">
-        <v>290</v>
+      <c r="B29" s="55" t="s">
+        <v>289</v>
       </c>
       <c r="C29" s="50">
         <v>20</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="60">
+      <c r="C40" s="99">
         <v>0</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
         <v>250</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E40" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D40,fw_,Pb_)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="60">
+      <c r="C41" s="99">
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
-        <v>8.3792731441949542</v>
-      </c>
-      <c r="D41" s="63">
+        <v>9.9187474546011547</v>
+      </c>
+      <c r="D41" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
-        <v>242.8114697819401</v>
-      </c>
-      <c r="E41" s="63">
+        <v>240.08125254539885</v>
+      </c>
+      <c r="E41" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D41,fw_,Pb_)</f>
-        <v>8.3792731441955848</v>
+        <v>9.9187474546011458</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C42" s="60">
+      <c r="C42" s="99">
         <f t="shared" si="0"/>
-        <v>16.758546288389908</v>
-      </c>
-      <c r="D42" s="63">
+        <v>19.837494909202309</v>
+      </c>
+      <c r="D42" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
-        <v>235.47097321851291</v>
-      </c>
-      <c r="E42" s="63">
+        <v>230.16250509079768</v>
+      </c>
+      <c r="E42" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D42,fw_,Pb_)</f>
-        <v>16.758546288390225</v>
+        <v>19.83749490920232</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="60">
+      <c r="C43" s="99">
         <f t="shared" si="0"/>
-        <v>25.137819432584863</v>
-      </c>
-      <c r="D43" s="63">
+        <v>29.756242363803466</v>
+      </c>
+      <c r="D43" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
-        <v>227.965479677627</v>
-      </c>
-      <c r="E43" s="63">
+        <v>220.24375763619653</v>
+      </c>
+      <c r="E43" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D43,fw_,Pb_)</f>
-        <v>25.137819432584866</v>
+        <v>29.756242363803466</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="60">
+      <c r="C44" s="99">
         <f t="shared" si="0"/>
-        <v>33.517092576779817</v>
-      </c>
-      <c r="D44" s="63">
+        <v>39.674989818404619</v>
+      </c>
+      <c r="D44" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
-        <v>220.27998248656144</v>
-      </c>
-      <c r="E44" s="63">
+        <v>210.32501018159539</v>
+      </c>
+      <c r="E44" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D44,fw_,Pb_)</f>
-        <v>33.517092576779504</v>
+        <v>39.674989818404612</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="60">
+      <c r="C45" s="99">
         <f t="shared" si="0"/>
-        <v>41.896365720974771</v>
-      </c>
-      <c r="D45" s="63">
+        <v>49.593737273005772</v>
+      </c>
+      <c r="D45" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
-        <v>212.39705208714059</v>
-      </c>
-      <c r="E45" s="63">
+        <v>200.40626272699421</v>
+      </c>
+      <c r="E45" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D45,fw_,Pb_)</f>
-        <v>41.896365720975091</v>
+        <v>49.593737273005786</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="60">
+      <c r="C46" s="99">
         <f t="shared" si="0"/>
-        <v>50.275638865169725</v>
-      </c>
-      <c r="D46" s="63">
+        <v>59.512484727606925</v>
+      </c>
+      <c r="D46" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
-        <v>204.29625021898838</v>
-      </c>
-      <c r="E46" s="63">
+        <v>190.48751527239307</v>
+      </c>
+      <c r="E46" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D46,fw_,Pb_)</f>
-        <v>50.275638865169732</v>
+        <v>59.512484727606932</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="60">
+      <c r="C47" s="99">
         <f t="shared" si="0"/>
-        <v>58.654912009364679</v>
-      </c>
-      <c r="D47" s="63">
+        <v>69.431232182208078</v>
+      </c>
+      <c r="D47" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
-        <v>195.9533483439667</v>
-      </c>
-      <c r="E47" s="63">
+        <v>180.56876781779192</v>
+      </c>
+      <c r="E47" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D47,fw_,Pb_)</f>
-        <v>58.654912009364374</v>
+        <v>69.431232182208078</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="60">
+      <c r="C48" s="99">
         <f t="shared" si="0"/>
-        <v>67.034185153559633</v>
-      </c>
-      <c r="D48" s="63">
+        <v>79.349979636809238</v>
+      </c>
+      <c r="D48" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
-        <v>187.33926387700305</v>
-      </c>
-      <c r="E48" s="63">
+        <v>170.65002036319078</v>
+      </c>
+      <c r="E48" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D48,fw_,Pb_)</f>
-        <v>67.03418515355996</v>
+        <v>79.349979636809223</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49" s="60">
+      <c r="C49" s="99">
         <f t="shared" si="0"/>
-        <v>75.413458297754588</v>
-      </c>
-      <c r="D49" s="63">
+        <v>89.268727091410398</v>
+      </c>
+      <c r="D49" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
-        <v>178.41857870219391</v>
-      </c>
-      <c r="E49" s="63">
+        <v>160.7312729085896</v>
+      </c>
+      <c r="E49" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D49,fw_,Pb_)</f>
-        <v>75.413458297754602</v>
+        <v>89.268727091410398</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50" s="60">
+      <c r="C50" s="99">
         <f t="shared" si="0"/>
-        <v>83.792731441949542</v>
-      </c>
-      <c r="D50" s="63">
+        <v>99.187474546011558</v>
+      </c>
+      <c r="D50" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
-        <v>169.14742008291859</v>
-      </c>
-      <c r="E50" s="63">
+        <v>150.81252545398843</v>
+      </c>
+      <c r="E50" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D50,fw_,Pb_)</f>
-        <v>83.792731441949243</v>
+        <v>99.187474546011572</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51" s="60">
+      <c r="C51" s="99">
         <f t="shared" si="0"/>
-        <v>92.172004586144496</v>
-      </c>
-      <c r="D51" s="63">
+        <v>109.10622200061272</v>
+      </c>
+      <c r="D51" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
-        <v>159.47033258588769</v>
-      </c>
-      <c r="E51" s="63">
+        <v>140.89377799938728</v>
+      </c>
+      <c r="E51" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D51,fw_,Pb_)</f>
-        <v>92.172004586144823</v>
+        <v>109.10622200061272</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C52" s="60">
+      <c r="C52" s="99">
         <f t="shared" si="0"/>
-        <v>100.55127773033945</v>
-      </c>
-      <c r="D52" s="63">
+        <v>119.02496945521388</v>
+      </c>
+      <c r="D52" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
-        <v>149.31548322079414</v>
-      </c>
-      <c r="E52" s="63">
+        <v>130.97503054478614</v>
+      </c>
+      <c r="E52" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D52,fw_,Pb_)</f>
-        <v>100.55127773033946</v>
+        <v>119.02496945521386</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C53" s="60">
+      <c r="C53" s="99">
         <f t="shared" si="0"/>
-        <v>108.9305508745344</v>
-      </c>
-      <c r="D53" s="63">
+        <v>128.94371690981504</v>
+      </c>
+      <c r="D53" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
-        <v>138.58696574824597</v>
-      </c>
-      <c r="E53" s="63">
+        <v>121.05628309018496</v>
+      </c>
+      <c r="E53" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D53,fw_,Pb_)</f>
-        <v>108.93055087453411</v>
+        <v>128.94371690981504</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C54" s="60">
+      <c r="C54" s="99">
         <f t="shared" si="0"/>
-        <v>117.30982401872936</v>
-      </c>
-      <c r="D54" s="63">
+        <v>138.86246436441618</v>
+      </c>
+      <c r="D54" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
-        <v>127.15171866767156</v>
-      </c>
-      <c r="E54" s="63">
+        <v>110.89439013405214</v>
+      </c>
+      <c r="E54" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D54,fw_,Pb_)</f>
-        <v>117.3098240187297</v>
+        <v>138.86246436441624</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C55" s="60">
+      <c r="C55" s="99">
         <f t="shared" si="0"/>
-        <v>125.68909716292431</v>
-      </c>
-      <c r="D55" s="63">
+        <v>148.78121181901733</v>
+      </c>
+      <c r="D55" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
-        <v>114.81557776767839</v>
-      </c>
-      <c r="E55" s="63">
+        <v>100.02727433529388</v>
+      </c>
+      <c r="E55" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D55,fw_,Pb_)</f>
-        <v>125.68909716292433</v>
+        <v>148.78121181901744</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C56" s="60">
+      <c r="C56" s="99">
         <f t="shared" si="0"/>
-        <v>134.06837030711927</v>
-      </c>
-      <c r="D56" s="63">
+        <v>158.69995927361848</v>
+      </c>
+      <c r="D56" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
-        <v>101.27485214904351</v>
-      </c>
-      <c r="E56" s="63">
+        <v>88.220870330268156</v>
+      </c>
+      <c r="E56" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D56,fw_,Pb_)</f>
-        <v>134.06837030711898</v>
+        <v>158.69995927361836</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C57" s="60">
+      <c r="C57" s="99">
         <f t="shared" si="0"/>
-        <v>142.44764345131421</v>
-      </c>
-      <c r="D57" s="63">
+        <v>168.61870672821962</v>
+      </c>
+      <c r="D57" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
-        <v>86.00344638835098</v>
-      </c>
-      <c r="E57" s="63">
+        <v>75.082562520816197</v>
+      </c>
+      <c r="E57" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D57,fw_,Pb_)</f>
-        <v>142.44764345131455</v>
+        <v>168.61870672821959</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C58" s="60">
+      <c r="C58" s="99">
         <f t="shared" si="0"/>
-        <v>150.82691659550915</v>
-      </c>
-      <c r="D58" s="63">
+        <v>178.53745418282077</v>
+      </c>
+      <c r="D58" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
-        <v>67.923468103450958</v>
-      </c>
-      <c r="E58" s="63">
+        <v>59.833402917957898</v>
+      </c>
+      <c r="E58" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D58,fw_,Pb_)</f>
-        <v>150.8269165955092</v>
+        <v>178.53745418282082</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C59" s="60">
+      <c r="C59" s="99">
         <f t="shared" si="0"/>
-        <v>159.20618973970409</v>
-      </c>
-      <c r="D59" s="63">
+        <v>188.45620163742191</v>
+      </c>
+      <c r="D59" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
-        <v>43.914837929748906</v>
-      </c>
-      <c r="E59" s="63">
+        <v>40.383204097085397</v>
+      </c>
+      <c r="E59" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D59,fw_,Pb_)</f>
-        <v>159.20618973970431</v>
+        <v>188.45620163742174</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C60" s="60">
+      <c r="C60" s="99">
         <f t="shared" si="0"/>
-        <v>167.58546288389903</v>
-      </c>
-      <c r="D60" s="63">
+        <v>198.37494909202306</v>
+      </c>
+      <c r="D60" s="94">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
-        <v>3.8481023922898316E-13</v>
-      </c>
-      <c r="E60" s="63">
+        <v>2.8181536965155018E-13</v>
+      </c>
+      <c r="E60" s="94">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D60,fw_,Pb_)</f>
-        <v>167.58546288389903</v>
+        <v>198.37494909202306</v>
       </c>
     </row>
   </sheetData>
@@ -6894,29 +6885,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="V2" s="65" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="V2" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
     </row>
     <row r="3" spans="2:25" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
@@ -62653,15 +62644,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="73">
+      <c r="K1" s="87"/>
+      <c r="L1" s="91">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="74"/>
+      <c r="M1" s="92"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -62673,15 +62664,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71">
+      <c r="K2" s="89"/>
+      <c r="L2" s="64">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="72"/>
+      <c r="M2" s="90"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -62695,31 +62686,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -62728,14 +62719,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="D8" s="97" t="s">
+      <c r="B8" s="73"/>
+      <c r="D8" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="98"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -62846,10 +62837,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="75"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -62877,10 +62868,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="100"/>
+      <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -63002,99 +62993,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="77" t="s">
+      <c r="B42" s="60"/>
+      <c r="C42" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="80" t="s">
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="81"/>
-      <c r="L42" s="66" t="s">
+      <c r="J42" s="82"/>
+      <c r="L42" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66" t="s">
+      <c r="M42" s="93"/>
+      <c r="N42" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66" t="s">
+      <c r="O42" s="93"/>
+      <c r="P42" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66" t="s">
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66" t="s">
+      <c r="S42" s="93"/>
+      <c r="T42" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66" t="s">
+      <c r="U42" s="93"/>
+      <c r="V42" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66" t="s">
+      <c r="W42" s="93"/>
+      <c r="X42" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66" t="s">
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66" t="s">
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66" t="s">
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66" t="s">
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66" t="s">
+      <c r="AG42" s="93"/>
+      <c r="AH42" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66" t="s">
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="66"/>
-      <c r="AL42" s="66"/>
-      <c r="AM42" s="66"/>
-      <c r="AN42" s="66"/>
-      <c r="AO42" s="66"/>
-      <c r="AP42" s="66"/>
-      <c r="AQ42" s="66"/>
-      <c r="AR42" s="66"/>
-      <c r="AS42" s="66"/>
+      <c r="AK42" s="93"/>
+      <c r="AL42" s="93"/>
+      <c r="AM42" s="93"/>
+      <c r="AN42" s="93"/>
+      <c r="AO42" s="93"/>
+      <c r="AP42" s="93"/>
+      <c r="AQ42" s="93"/>
+      <c r="AR42" s="93"/>
+      <c r="AS42" s="93"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="84" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="84" t="s">
+      <c r="D43" s="62"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="83"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="84"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -63190,17 +63181,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="76"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="76"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -65673,20 +65664,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -65701,13 +65685,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
